--- a/IRAbridged.xlsx
+++ b/IRAbridged.xlsx
@@ -541,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
+      <selection activeCell="AV2" sqref="AV2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/IRAbridged.xlsx
+++ b/IRAbridged.xlsx
@@ -1,15 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19125"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kathleenbaert/Documents/workspace/IRDatabase/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55B21C2C-7271-4923-8FBE-7FA792675F93}" xr6:coauthVersionLast="30" xr6:coauthVersionMax="30" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="14800" windowHeight="8020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -186,11 +182,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -538,16 +534,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="AV2" sqref="AV2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:47">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -690,7 +684,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:47">
       <c r="A2">
         <v>1365</v>
       </c>
@@ -746,7 +740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:47">
       <c r="A3">
         <v>1366</v>
       </c>
@@ -799,7 +793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:47">
       <c r="A4">
         <v>1368</v>
       </c>
@@ -855,7 +849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:47">
       <c r="A5">
         <v>1362</v>
       </c>
@@ -875,7 +869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:47">
       <c r="A6">
         <v>1363</v>
       </c>
@@ -895,7 +889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:47">
       <c r="A7">
         <v>1364</v>
       </c>
@@ -939,7 +933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:47">
       <c r="A8">
         <v>1367</v>
       </c>
@@ -980,7 +974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:47">
       <c r="A9">
         <v>1367</v>
       </c>
@@ -1021,7 +1015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:47">
       <c r="A10">
         <v>1367</v>
       </c>
@@ -1062,7 +1056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:47">
       <c r="A11">
         <v>1369</v>
       </c>
@@ -1103,7 +1097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:47">
       <c r="A12">
         <v>1370</v>
       </c>
@@ -1123,7 +1117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:47">
       <c r="A13">
         <v>3826</v>
       </c>
@@ -1179,7 +1173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:47">
       <c r="A14">
         <v>3827</v>
       </c>
@@ -1235,7 +1229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:47">
       <c r="A15">
         <v>3827</v>
       </c>
@@ -1291,7 +1285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:47">
       <c r="A16">
         <v>3830</v>
       </c>
@@ -1371,7 +1365,7 @@
         <v>43151</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:47">
       <c r="A17">
         <v>3830</v>
       </c>
@@ -1451,7 +1445,7 @@
         <v>43151</v>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:47">
       <c r="A18">
         <v>3828</v>
       </c>
@@ -1492,7 +1486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:47">
       <c r="A19">
         <v>3829</v>
       </c>
@@ -1512,7 +1506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:47">
       <c r="A20">
         <v>3831</v>
       </c>
@@ -1556,7 +1550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:47">
       <c r="A21">
         <v>3832</v>
       </c>
